--- a/Logs/node10/testing_timestep_output.xlsx
+++ b/Logs/node10/testing_timestep_output.xlsx
@@ -413,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>-200</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>-200</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>-200</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -446,7 +446,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>-200</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>-200</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>-200</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>-200</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>-200</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>-200</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -611,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="B244">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="B260">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="B262">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="B267">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="B270">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="B273">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B274">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="B276">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="B290">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="B291">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="B292">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="B293">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="B294">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="B295">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="B296">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="B297">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="B298">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="B300">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="B302">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="B303">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="B304">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="B305">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="B306">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="B307">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="B310">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="B311">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="B312">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="B313">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="B316">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="B317">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="B318">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="B319">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="B320">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="B321">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="B322">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="B324">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="B325">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="B326">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="B327">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="B328">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="B329">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="B330">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="B331">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="B332">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="B333">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="B334">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="B336">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="B338">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C338">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="B339">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="B340">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="B341">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="B343">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="B344">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="B345">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="B346">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="B347">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="B348">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="B350">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="B351">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="B352">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="B353">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="B354">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="B355">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -4307,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="B358">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="B361">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="B362">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -4373,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="B363">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="B364">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="B365">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="B366">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="B367">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="B368">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="B369">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="B370">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="B371">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="B372">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C372">
         <v>0</v>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="B373">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C373">
         <v>0</v>
@@ -4494,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="B374">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="B375">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="B376">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C376">
         <v>0</v>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="B377">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="B378">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="B379">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C379">
         <v>0</v>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="B380">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="B381">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C381">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="B382">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="B383">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="B384">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="B385">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="B386">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="B387">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C387">
         <v>0</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="B388">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C388">
         <v>0</v>
@@ -4659,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="B389">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C389">
         <v>0</v>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="B390">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C390">
         <v>0</v>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="B391">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C391">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="B392">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C392">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="B393">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C393">
         <v>0</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="B394">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C394">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="B395">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C395">
         <v>0</v>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="B396">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="B397">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="B398">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="B399">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="B400">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="B401">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="B402">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="B403">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C403">
         <v>0</v>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="B404">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="B405">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="B406">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="B407">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="B408">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="B409">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="B410">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="B411">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="B412">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="B413">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="B414">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="B415">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="B416">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C416">
         <v>0</v>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="B417">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C417">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="B418">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C418">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="B419">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="B420">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="B421">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="B422">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C422">
         <v>0</v>
@@ -5033,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="B423">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="B424">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="B425">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C425">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="B426">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C426">
         <v>0</v>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="B427">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="B428">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C428">
         <v>0</v>
@@ -5099,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="B429">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="B430">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -5121,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="B431">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="B432">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="B433">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="B434">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="B435">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="B436">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="B437">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="B438">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C438">
         <v>0</v>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="B439">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C439">
         <v>0</v>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="B440">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C440">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="B441">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C441">
         <v>0</v>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="B442">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C442">
         <v>0</v>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="B443">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C443">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="B444">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="B445">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C445">
         <v>0</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="B446">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C446">
         <v>0</v>
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="B447">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="B448">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -5319,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="B449">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C449">
         <v>0</v>
@@ -5330,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="B450">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C450">
         <v>0</v>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="B451">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C451">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="B452">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="B453">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="B454">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C454">
         <v>0</v>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="B455">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="B456">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="B457">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -5418,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="B458">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="B459">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="B460">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C460">
         <v>0</v>
@@ -5451,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="B461">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C461">
         <v>0</v>
@@ -5462,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="B462">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C462">
         <v>0</v>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="B463">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C463">
         <v>0</v>
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="B464">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C464">
         <v>0</v>
@@ -5495,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="B465">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C465">
         <v>0</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="B466">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C466">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="B467">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="B468">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C468">
         <v>0</v>
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="B469">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C469">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="B470">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="B471">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="B472">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C472">
         <v>0</v>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="B473">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="B474">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C474">
         <v>0</v>
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="B475">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C475">
         <v>0</v>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="B476">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C476">
         <v>0</v>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="B477">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="B478">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C478">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="B479">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C479">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="B480">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C480">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="B481">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C481">
         <v>0</v>
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="B482">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C482">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="B483">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C483">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="B484">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C484">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="B485">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C485">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="B486">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C486">
         <v>0</v>
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="B487">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C487">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="B488">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C488">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="B489">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -5770,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="B490">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C490">
         <v>0</v>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="B491">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C491">
         <v>0</v>
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="B492">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C492">
         <v>0</v>
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="B493">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C493">
         <v>0</v>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="B494">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C494">
         <v>0</v>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="B495">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C495">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="B496">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C496">
         <v>0</v>
@@ -5847,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="B497">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C497">
         <v>0</v>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="B498">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C498">
         <v>0</v>
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="B499">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C499">
         <v>0</v>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="B500">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C500">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="B501">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="B502">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="B503">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C503">
         <v>0</v>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="B504">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C504">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="B505">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C505">
         <v>0</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="B506">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="B507">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="B508">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C508">
         <v>0</v>
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="B509">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C509">
         <v>0</v>
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="B510">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C510">
         <v>0</v>
@@ -6001,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="B511">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C511">
         <v>0</v>
@@ -6012,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="B512">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C512">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="B513">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="B514">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C514">
         <v>0</v>
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="B515">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="B516">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="B517">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="B518">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C518">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="B519">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C519">
         <v>0</v>
@@ -6100,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="B520">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="B521">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C521">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="B522">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C522">
         <v>0</v>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="B523">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C523">
         <v>0</v>
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="B524">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C524">
         <v>0</v>
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="B525">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C525">
         <v>0</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="B526">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C526">
         <v>0</v>
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="B527">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C527">
         <v>0</v>
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="B528">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C528">
         <v>0</v>
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="B529">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C529">
         <v>0</v>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="B530">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C530">
         <v>0</v>
@@ -6221,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="B531">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C531">
         <v>0</v>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="B532">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C532">
         <v>0</v>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="B533">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C533">
         <v>0</v>
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="B534">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C534">
         <v>0</v>
@@ -6265,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="B535">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C535">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="B536">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C536">
         <v>0</v>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="B537">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C537">
         <v>0</v>
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="B538">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C538">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="B539">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C539">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="B540">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C540">
         <v>0</v>
@@ -6331,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="B541">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C541">
         <v>0</v>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="B542">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C542">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="B543">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C543">
         <v>0</v>
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="B544">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C544">
         <v>0</v>
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="B545">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C545">
         <v>0</v>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="B546">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C546">
         <v>0</v>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="B547">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C547">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="B548">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C548">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="B549">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C549">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="B550">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C550">
         <v>0</v>
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="B551">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C551">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="B552">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C552">
         <v>0</v>
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="B553">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C553">
         <v>0</v>
@@ -6474,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="B554">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C554">
         <v>0</v>
@@ -6485,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="B555">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C555">
         <v>0</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="B556">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C556">
         <v>0</v>
@@ -6507,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="B557">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C557">
         <v>0</v>
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="B558">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C558">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="B559">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C559">
         <v>0</v>
@@ -6540,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="B560">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C560">
         <v>0</v>
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="B561">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C561">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="B562">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C562">
         <v>0</v>
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="B563">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C563">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="B564">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C564">
         <v>0</v>
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="B565">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C565">
         <v>0</v>
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="B566">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C566">
         <v>0</v>
@@ -6617,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="B567">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C567">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="B568">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C568">
         <v>0</v>
@@ -6639,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="B569">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C569">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="B570">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C570">
         <v>0</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="B571">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C571">
         <v>0</v>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="B572">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C572">
         <v>0</v>
@@ -6683,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="B573">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C573">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="B574">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C574">
         <v>0</v>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="B575">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C575">
         <v>0</v>
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="B576">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C576">
         <v>0</v>
@@ -6727,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="B577">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C577">
         <v>0</v>
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="B578">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C578">
         <v>0</v>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="B579">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C579">
         <v>0</v>
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="B580">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C580">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="B581">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C581">
         <v>0</v>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="B582">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C582">
         <v>0</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="B583">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C583">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="B584">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C584">
         <v>0</v>
@@ -6815,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="B585">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C585">
         <v>0</v>
@@ -6826,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="B586">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C586">
         <v>0</v>
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="B587">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C587">
         <v>0</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="B588">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C588">
         <v>0</v>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="B589">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C589">
         <v>0</v>
@@ -6870,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="B590">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C590">
         <v>0</v>
@@ -6881,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="B591">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C591">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="B592">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C592">
         <v>0</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="B593">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C593">
         <v>0</v>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="B594">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C594">
         <v>0</v>
@@ -6925,7 +6925,7 @@
         <v>0</v>
       </c>
       <c r="B595">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C595">
         <v>0</v>
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="B596">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C596">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="B597">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C597">
         <v>0</v>
@@ -6958,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="B598">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C598">
         <v>0</v>
@@ -6969,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="B599">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C599">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="B600">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C600">
         <v>0</v>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="B601">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C601">
         <v>0</v>
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="B602">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C602">
         <v>0</v>
@@ -7013,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="B603">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C603">
         <v>0</v>
@@ -7024,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="B604">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C604">
         <v>0</v>
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="B605">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C605">
         <v>0</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="B606">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C606">
         <v>0</v>
@@ -7057,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="B607">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C607">
         <v>0</v>
@@ -7068,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="B608">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C608">
         <v>0</v>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="B609">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C609">
         <v>0</v>
@@ -7090,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="B610">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C610">
         <v>0</v>
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="B611">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C611">
         <v>0</v>
@@ -7112,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="B612">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C612">
         <v>0</v>
@@ -7123,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="B613">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C613">
         <v>0</v>
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="B614">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C614">
         <v>0</v>
@@ -7145,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="B615">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C615">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="B616">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C616">
         <v>0</v>
@@ -7167,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="B617">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C617">
         <v>0</v>
@@ -7178,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="B618">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C618">
         <v>0</v>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="B619">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C619">
         <v>0</v>
@@ -7200,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="B620">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C620">
         <v>0</v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="B621">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C621">
         <v>0</v>
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="B622">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C622">
         <v>0</v>
@@ -7233,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="B623">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C623">
         <v>0</v>
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="B624">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C624">
         <v>0</v>
@@ -7255,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="B625">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C625">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="B626">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C626">
         <v>0</v>
@@ -7277,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="B627">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C627">
         <v>0</v>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="B628">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C628">
         <v>0</v>
@@ -7299,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="B629">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C629">
         <v>0</v>
@@ -7310,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="B630">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C630">
         <v>0</v>
@@ -7321,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="B631">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C631">
         <v>0</v>
@@ -7332,7 +7332,7 @@
         <v>0</v>
       </c>
       <c r="B632">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C632">
         <v>0</v>
@@ -7343,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="B633">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C633">
         <v>0</v>
@@ -7354,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="B634">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C634">
         <v>0</v>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="B635">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C635">
         <v>0</v>
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="B636">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C636">
         <v>0</v>
@@ -7387,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="B637">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C637">
         <v>0</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="B638">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C638">
         <v>0</v>
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="B639">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C639">
         <v>0</v>
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="B640">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C640">
         <v>0</v>
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="B641">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C641">
         <v>0</v>
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="B642">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C642">
         <v>0</v>
@@ -7453,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="B643">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C643">
         <v>0</v>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="B644">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C644">
         <v>0</v>
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="B645">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C645">
         <v>0</v>
@@ -7486,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="B646">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C646">
         <v>0</v>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="B647">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C647">
         <v>0</v>
@@ -7508,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="B648">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C648">
         <v>0</v>
@@ -7519,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="B649">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C649">
         <v>0</v>
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="B650">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C650">
         <v>0</v>
@@ -7541,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="B651">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C651">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="B652">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C652">
         <v>0</v>
@@ -7563,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="B653">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C653">
         <v>0</v>
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="B654">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C654">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="B655">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C655">
         <v>0</v>
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="B656">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C656">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="B657">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C657">
         <v>0</v>
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="B658">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C658">
         <v>0</v>
@@ -7629,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="B659">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C659">
         <v>0</v>
@@ -7640,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="B660">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C660">
         <v>0</v>
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="B661">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C661">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="B662">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C662">
         <v>0</v>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="B663">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C663">
         <v>0</v>
@@ -7684,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="B664">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C664">
         <v>0</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="B665">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C665">
         <v>0</v>
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="B666">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C666">
         <v>0</v>
@@ -7717,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="B667">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C667">
         <v>0</v>
@@ -7728,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="B668">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C668">
         <v>0</v>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="B669">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C669">
         <v>0</v>
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="B670">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C670">
         <v>0</v>
@@ -7761,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="B671">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C671">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="B672">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C672">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="B673">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C673">
         <v>0</v>
@@ -7794,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="B674">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C674">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="B675">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C675">
         <v>0</v>
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="B676">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C676">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="B677">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C677">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="B678">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C678">
         <v>0</v>
@@ -7849,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="B679">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C679">
         <v>0</v>
@@ -7860,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="B680">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C680">
         <v>0</v>
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="B681">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C681">
         <v>0</v>
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="B682">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C682">
         <v>0</v>
@@ -7893,7 +7893,7 @@
         <v>0</v>
       </c>
       <c r="B683">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C683">
         <v>0</v>
@@ -7904,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="B684">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C684">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="B685">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C685">
         <v>0</v>
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="B686">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C686">
         <v>0</v>
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="B687">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C687">
         <v>0</v>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="B688">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C688">
         <v>0</v>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="B689">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C689">
         <v>0</v>
@@ -7970,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="B690">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C690">
         <v>0</v>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="B691">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C691">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="B692">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C692">
         <v>0</v>
@@ -8003,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="B693">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C693">
         <v>0</v>
@@ -8014,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="B694">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C694">
         <v>0</v>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="B695">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C695">
         <v>0</v>
@@ -8036,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="B696">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C696">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="B697">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C697">
         <v>0</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="B698">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C698">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="B699">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C699">
         <v>0</v>
@@ -8080,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="B700">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C700">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="B701">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C701">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="B702">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C702">
         <v>0</v>
@@ -8113,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="B703">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C703">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="B704">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C704">
         <v>0</v>
@@ -8135,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="B705">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C705">
         <v>0</v>
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="B706">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C706">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="B707">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C707">
         <v>0</v>
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="B708">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C708">
         <v>0</v>
@@ -8179,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="B709">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C709">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="B710">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C710">
         <v>0</v>
@@ -8201,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="B711">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C711">
         <v>0</v>
@@ -8212,7 +8212,7 @@
         <v>0</v>
       </c>
       <c r="B712">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C712">
         <v>0</v>
@@ -8223,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="B713">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C713">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="B714">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C714">
         <v>0</v>
@@ -8245,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="B715">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C715">
         <v>0</v>
@@ -8256,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="B716">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C716">
         <v>0</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="B717">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C717">
         <v>0</v>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="B718">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C718">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="B719">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C719">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="B720">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C720">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="B721">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C721">
         <v>0</v>
@@ -8322,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="B722">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C722">
         <v>0</v>
@@ -8333,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="B723">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C723">
         <v>0</v>
@@ -8344,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="B724">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C724">
         <v>0</v>
@@ -8355,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="B725">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C725">
         <v>0</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="B726">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C726">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="B727">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C727">
         <v>0</v>
@@ -8388,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="B728">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C728">
         <v>0</v>
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="B729">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C729">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="B730">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C730">
         <v>0</v>
@@ -8421,7 +8421,7 @@
         <v>0</v>
       </c>
       <c r="B731">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C731">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="B732">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C732">
         <v>0</v>
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="B733">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C733">
         <v>0</v>
@@ -8454,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="B734">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C734">
         <v>0</v>
@@ -8465,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="B735">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C735">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="B736">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C736">
         <v>0</v>
@@ -8487,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="B737">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C737">
         <v>0</v>
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="B738">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C738">
         <v>0</v>
@@ -8509,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="B739">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C739">
         <v>0</v>
@@ -8520,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="B740">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C740">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="B741">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C741">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="B742">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C742">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="B743">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C743">
         <v>0</v>
@@ -8564,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="B744">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C744">
         <v>0</v>
@@ -8575,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="B745">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C745">
         <v>0</v>
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="B746">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C746">
         <v>0</v>
@@ -8597,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="B747">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C747">
         <v>0</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="B748">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C748">
         <v>0</v>
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="B749">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C749">
         <v>0</v>
@@ -8630,7 +8630,7 @@
         <v>0</v>
       </c>
       <c r="B750">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C750">
         <v>0</v>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="B751">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C751">
         <v>0</v>
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="B752">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C752">
         <v>0</v>
@@ -8663,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="B753">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C753">
         <v>0</v>
@@ -8674,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="B754">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C754">
         <v>0</v>
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="B755">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C755">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="B756">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C756">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="B757">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C757">
         <v>0</v>
@@ -8718,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="B758">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C758">
         <v>0</v>
@@ -8729,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="B759">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C759">
         <v>0</v>
@@ -8740,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="B760">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C760">
         <v>0</v>
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="B761">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C761">
         <v>0</v>
@@ -8762,7 +8762,7 @@
         <v>0</v>
       </c>
       <c r="B762">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C762">
         <v>0</v>
@@ -8773,7 +8773,7 @@
         <v>0</v>
       </c>
       <c r="B763">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C763">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="B764">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C764">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="B765">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C765">
         <v>0</v>
@@ -8806,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="B766">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C766">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="B767">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C767">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="B768">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C768">
         <v>0</v>
@@ -8839,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="B769">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C769">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="B770">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C770">
         <v>0</v>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="B771">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C771">
         <v>0</v>
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="B772">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C772">
         <v>0</v>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="B773">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C773">
         <v>0</v>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="B774">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C774">
         <v>0</v>
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="B775">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C775">
         <v>0</v>
@@ -8916,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="B776">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C776">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="B777">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C777">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="B778">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C778">
         <v>0</v>
@@ -8949,7 +8949,7 @@
         <v>0</v>
       </c>
       <c r="B779">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C779">
         <v>0</v>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="B780">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C780">
         <v>0</v>
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="B781">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C781">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="B782">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C782">
         <v>0</v>
@@ -8993,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="B783">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C783">
         <v>0</v>
@@ -9004,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="B784">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C784">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="B785">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C785">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="B786">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C786">
         <v>0</v>
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="B787">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C787">
         <v>0</v>
@@ -9048,7 +9048,7 @@
         <v>0</v>
       </c>
       <c r="B788">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C788">
         <v>0</v>
@@ -9059,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="B789">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C789">
         <v>0</v>
@@ -9070,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="B790">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C790">
         <v>0</v>
@@ -9081,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="B791">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C791">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="B792">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C792">
         <v>0</v>
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="B793">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C793">
         <v>0</v>
@@ -9114,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="B794">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C794">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="B795">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C795">
         <v>0</v>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="B796">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C796">
         <v>0</v>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="B797">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C797">
         <v>0</v>
@@ -9158,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="B798">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C798">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="B799">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C799">
         <v>0</v>
@@ -9180,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="B800">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C800">
         <v>0</v>
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="B801">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C801">
         <v>0</v>
@@ -9202,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="B802">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C802">
         <v>0</v>
@@ -9213,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="B803">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C803">
         <v>0</v>
@@ -9224,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="B804">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C804">
         <v>0</v>
@@ -9235,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="B805">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C805">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="B806">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C806">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="B807">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C807">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="B808">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C808">
         <v>0</v>
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="B809">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C809">
         <v>0</v>
@@ -9290,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="B810">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C810">
         <v>0</v>
@@ -9301,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="B811">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C811">
         <v>0</v>
@@ -9312,7 +9312,7 @@
         <v>0</v>
       </c>
       <c r="B812">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C812">
         <v>0</v>
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="B813">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C813">
         <v>0</v>
@@ -9334,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="B814">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C814">
         <v>0</v>
@@ -9345,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="B815">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C815">
         <v>0</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="B816">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C816">
         <v>0</v>
@@ -9367,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="B817">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C817">
         <v>0</v>
@@ -9378,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="B818">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C818">
         <v>0</v>
@@ -9389,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="B819">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C819">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="B820">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C820">
         <v>0</v>
@@ -9411,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="B821">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C821">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="B822">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C822">
         <v>0</v>
@@ -9433,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="B823">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C823">
         <v>0</v>
@@ -9444,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="B824">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C824">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="B825">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C825">
         <v>0</v>
@@ -9466,7 +9466,7 @@
         <v>0</v>
       </c>
       <c r="B826">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C826">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="B827">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C827">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="B828">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C828">
         <v>0</v>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="B829">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C829">
         <v>0</v>
@@ -9510,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="B830">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C830">
         <v>0</v>
@@ -9521,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="B831">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C831">
         <v>0</v>
@@ -9532,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="B832">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C832">
         <v>0</v>
@@ -9543,7 +9543,7 @@
         <v>0</v>
       </c>
       <c r="B833">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C833">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="B834">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C834">
         <v>0</v>
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="B835">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C835">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="B836">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C836">
         <v>0</v>
@@ -9587,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="B837">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C837">
         <v>0</v>
@@ -9598,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="B838">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C838">
         <v>0</v>
@@ -9609,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="B839">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C839">
         <v>0</v>
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="B840">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C840">
         <v>0</v>
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="B841">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C841">
         <v>0</v>
@@ -9642,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="B842">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C842">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="B843">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C843">
         <v>0</v>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="B844">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C844">
         <v>0</v>
@@ -9675,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="B845">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C845">
         <v>0</v>
@@ -9686,7 +9686,7 @@
         <v>0</v>
       </c>
       <c r="B846">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C846">
         <v>0</v>
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="B847">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C847">
         <v>0</v>
@@ -9708,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="B848">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C848">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="B849">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C849">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="B850">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C850">
         <v>0</v>
@@ -9741,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="B851">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C851">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="B852">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C852">
         <v>0</v>
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="B853">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C853">
         <v>0</v>
@@ -9774,7 +9774,7 @@
         <v>0</v>
       </c>
       <c r="B854">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C854">
         <v>0</v>
@@ -9785,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="B855">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C855">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="B856">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C856">
         <v>0</v>
@@ -9807,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="B857">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C857">
         <v>0</v>
@@ -9818,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="B858">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C858">
         <v>0</v>
@@ -9829,7 +9829,7 @@
         <v>0</v>
       </c>
       <c r="B859">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C859">
         <v>0</v>
@@ -9840,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="B860">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C860">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="B861">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C861">
         <v>0</v>
@@ -9862,7 +9862,7 @@
         <v>0</v>
       </c>
       <c r="B862">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C862">
         <v>0</v>
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="B863">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C863">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="B864">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C864">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="B865">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C865">
         <v>0</v>
@@ -9906,7 +9906,7 @@
         <v>0</v>
       </c>
       <c r="B866">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C866">
         <v>0</v>
@@ -9917,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="B867">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C867">
         <v>0</v>
@@ -9928,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="B868">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C868">
         <v>0</v>
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="B869">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C869">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="B870">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C870">
         <v>0</v>
@@ -9961,7 +9961,7 @@
         <v>0</v>
       </c>
       <c r="B871">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C871">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="B872">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C872">
         <v>0</v>
@@ -9983,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="B873">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C873">
         <v>0</v>
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="B874">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C874">
         <v>0</v>
@@ -10005,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="B875">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C875">
         <v>0</v>
@@ -10016,7 +10016,7 @@
         <v>0</v>
       </c>
       <c r="B876">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C876">
         <v>0</v>
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="B877">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C877">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="B878">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C878">
         <v>0</v>
@@ -10049,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="B879">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C879">
         <v>0</v>
@@ -10060,7 +10060,7 @@
         <v>0</v>
       </c>
       <c r="B880">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C880">
         <v>0</v>
@@ -10071,7 +10071,7 @@
         <v>0</v>
       </c>
       <c r="B881">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C881">
         <v>0</v>
@@ -10082,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="B882">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C882">
         <v>0</v>
@@ -10093,7 +10093,7 @@
         <v>0</v>
       </c>
       <c r="B883">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C883">
         <v>0</v>
@@ -10104,7 +10104,7 @@
         <v>0</v>
       </c>
       <c r="B884">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C884">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="B885">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C885">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="B886">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C886">
         <v>0</v>
@@ -10137,7 +10137,7 @@
         <v>0</v>
       </c>
       <c r="B887">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C887">
         <v>0</v>
@@ -10148,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="B888">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C888">
         <v>0</v>
@@ -10159,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="B889">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C889">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="B890">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C890">
         <v>0</v>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="B891">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C891">
         <v>0</v>
@@ -10192,7 +10192,7 @@
         <v>0</v>
       </c>
       <c r="B892">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C892">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="B893">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C893">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="B894">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C894">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="B895">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C895">
         <v>0</v>
@@ -10236,7 +10236,7 @@
         <v>0</v>
       </c>
       <c r="B896">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C896">
         <v>0</v>
@@ -10247,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="B897">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C897">
         <v>0</v>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="B898">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C898">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="B899">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C899">
         <v>0</v>
@@ -10280,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="B900">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C900">
         <v>0</v>
@@ -10291,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="B901">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C901">
         <v>0</v>
@@ -10302,7 +10302,7 @@
         <v>0</v>
       </c>
       <c r="B902">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C902">
         <v>0</v>
@@ -10313,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="B903">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C903">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="B904">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C904">
         <v>0</v>
@@ -10335,7 +10335,7 @@
         <v>0</v>
       </c>
       <c r="B905">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C905">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="B906">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C906">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="B907">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C907">
         <v>0</v>
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="B908">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C908">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="B909">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C909">
         <v>0</v>
@@ -10390,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="B910">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C910">
         <v>0</v>
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="B911">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C911">
         <v>0</v>
@@ -10412,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="B912">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C912">
         <v>0</v>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="B913">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C913">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="B914">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C914">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="B915">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C915">
         <v>0</v>
@@ -10456,7 +10456,7 @@
         <v>0</v>
       </c>
       <c r="B916">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C916">
         <v>0</v>
@@ -10467,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="B917">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C917">
         <v>0</v>
@@ -10478,7 +10478,7 @@
         <v>0</v>
       </c>
       <c r="B918">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C918">
         <v>0</v>
@@ -10489,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="B919">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C919">
         <v>0</v>
@@ -10500,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="B920">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C920">
         <v>0</v>
@@ -10511,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="B921">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C921">
         <v>0</v>
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="B922">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C922">
         <v>0</v>
@@ -10533,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="B923">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C923">
         <v>0</v>
@@ -10544,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="B924">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C924">
         <v>0</v>
@@ -10555,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="B925">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C925">
         <v>0</v>
@@ -10566,7 +10566,7 @@
         <v>0</v>
       </c>
       <c r="B926">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C926">
         <v>0</v>
@@ -10577,7 +10577,7 @@
         <v>0</v>
       </c>
       <c r="B927">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C927">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="B928">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C928">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="B929">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C929">
         <v>0</v>
@@ -10610,7 +10610,7 @@
         <v>0</v>
       </c>
       <c r="B930">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C930">
         <v>0</v>
@@ -10621,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="B931">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C931">
         <v>0</v>
@@ -10632,7 +10632,7 @@
         <v>0</v>
       </c>
       <c r="B932">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C932">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="B933">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C933">
         <v>0</v>
@@ -10654,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="B934">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C934">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="B935">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C935">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="B936">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C936">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="B937">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C937">
         <v>0</v>
@@ -10698,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="B938">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C938">
         <v>0</v>
@@ -10709,7 +10709,7 @@
         <v>0</v>
       </c>
       <c r="B939">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C939">
         <v>0</v>
@@ -10720,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="B940">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C940">
         <v>0</v>
@@ -10731,7 +10731,7 @@
         <v>0</v>
       </c>
       <c r="B941">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C941">
         <v>0</v>
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="B942">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C942">
         <v>0</v>
@@ -10753,7 +10753,7 @@
         <v>0</v>
       </c>
       <c r="B943">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C943">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="B944">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C944">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="B945">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C945">
         <v>0</v>
@@ -10786,7 +10786,7 @@
         <v>0</v>
       </c>
       <c r="B946">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C946">
         <v>0</v>
@@ -10797,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="B947">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C947">
         <v>0</v>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="B948">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C948">
         <v>0</v>
@@ -10819,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="B949">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C949">
         <v>0</v>
@@ -10830,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="B950">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C950">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="B951">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C951">
         <v>0</v>
@@ -10852,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="B952">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C952">
         <v>0</v>
@@ -10863,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="B953">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C953">
         <v>0</v>
@@ -10874,7 +10874,7 @@
         <v>0</v>
       </c>
       <c r="B954">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C954">
         <v>0</v>
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="B955">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C955">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="B956">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C956">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="B957">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C957">
         <v>0</v>
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="B958">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C958">
         <v>0</v>
@@ -10929,7 +10929,7 @@
         <v>0</v>
       </c>
       <c r="B959">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C959">
         <v>0</v>
@@ -10940,7 +10940,7 @@
         <v>0</v>
       </c>
       <c r="B960">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C960">
         <v>0</v>
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="B961">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C961">
         <v>0</v>
@@ -10962,7 +10962,7 @@
         <v>0</v>
       </c>
       <c r="B962">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C962">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="B963">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C963">
         <v>0</v>
@@ -10984,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="B964">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C964">
         <v>0</v>
@@ -10995,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="B965">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C965">
         <v>0</v>
@@ -11006,7 +11006,7 @@
         <v>0</v>
       </c>
       <c r="B966">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C966">
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="B967">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C967">
         <v>0</v>
@@ -11028,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="B968">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C968">
         <v>0</v>
@@ -11039,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="B969">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C969">
         <v>0</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="B970">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C970">
         <v>0</v>
@@ -11061,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="B971">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C971">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="B972">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C972">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="B973">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C973">
         <v>0</v>
@@ -11094,7 +11094,7 @@
         <v>0</v>
       </c>
       <c r="B974">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C974">
         <v>0</v>
@@ -11105,7 +11105,7 @@
         <v>0</v>
       </c>
       <c r="B975">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C975">
         <v>0</v>
@@ -11116,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="B976">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C976">
         <v>0</v>
@@ -11127,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="B977">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C977">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="B978">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C978">
         <v>0</v>
@@ -11149,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="B979">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C979">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="B980">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C980">
         <v>0</v>
@@ -11171,7 +11171,7 @@
         <v>0</v>
       </c>
       <c r="B981">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C981">
         <v>0</v>
@@ -11182,7 +11182,7 @@
         <v>0</v>
       </c>
       <c r="B982">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C982">
         <v>0</v>
@@ -11193,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="B983">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C983">
         <v>0</v>
@@ -11204,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="B984">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C984">
         <v>0</v>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="B985">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C985">
         <v>0</v>
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="B986">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C986">
         <v>0</v>
@@ -11237,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="B987">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C987">
         <v>0</v>
@@ -11248,7 +11248,7 @@
         <v>0</v>
       </c>
       <c r="B988">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C988">
         <v>0</v>
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="B989">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C989">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="B990">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C990">
         <v>0</v>
@@ -11281,7 +11281,7 @@
         <v>0</v>
       </c>
       <c r="B991">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C991">
         <v>0</v>
@@ -11292,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="B992">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C992">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="B993">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C993">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="B994">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C994">
         <v>0</v>
@@ -11325,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="B995">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C995">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="B996">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C996">
         <v>0</v>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="B997">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C997">
         <v>0</v>
@@ -11358,7 +11358,7 @@
         <v>0</v>
       </c>
       <c r="B998">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C998">
         <v>0</v>
@@ -11369,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="B999">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C999">
         <v>0</v>
@@ -11380,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="B1000">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C1000">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="B1001">
-        <v>0</v>
+        <v>-1.4140625</v>
       </c>
       <c r="C1001">
         <v>0</v>
